--- a/Mifos Automation Excels/Client/4462-ACTCTR-MEET-WEEKLYonFRI-Modifymeeting-Repetesonevery1weeksonWednesday-DisburseJLGloanonmeetingdatewithevery1weeksrepayment.xlsx
+++ b/Mifos Automation Excels/Client/4462-ACTCTR-MEET-WEEKLYonFRI-Modifymeeting-Repetesonevery1weeksonWednesday-DisburseJLGloanonmeetingdatewithevery1weeksrepayment.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
   </bookViews>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>submittedon</t>
   </si>
@@ -208,9 +203,6 @@
     <t>Paid Date</t>
   </si>
   <si>
-    <t>heading</t>
-  </si>
-  <si>
     <t>Principal Due</t>
   </si>
   <si>
@@ -305,9 +297,6 @@
   </si>
   <si>
     <t>AddGroup</t>
-  </si>
-  <si>
-    <t>error.msg.calendar.loanapplication.repayment.interval.not.the.same.as.meeting.frequency</t>
   </si>
   <si>
     <t>center4462</t>
@@ -331,7 +320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -372,9 +361,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -397,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -420,41 +409,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -494,26 +453,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,26 +585,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,23 +620,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,7 +799,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -901,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -978,7 +894,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -989,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1002,7 +918,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -1010,7 +926,7 @@
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -1018,15 +934,15 @@
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -1034,7 +950,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
@@ -1058,17 +974,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="24">
+        <v>82</v>
+      </c>
+      <c r="B2" s="22">
         <v>42076</v>
       </c>
     </row>
@@ -1093,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>22</v>
@@ -1101,7 +1017,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1109,7 +1025,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1117,7 +1033,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1147,7 +1063,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1091,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1225,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1227,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="14">
         <v>12</v>
@@ -1326,11 +1242,51 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>92</v>
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="13">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="13">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1299,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1434,106 +1390,106 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="A2" s="19">
         <v>10000</v>
       </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27">
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
         <v>10000</v>
       </c>
-      <c r="F2" s="29">
-        <v>3308.74</v>
+      <c r="F2" s="25">
+        <v>1647.52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
-        <v>144.43</v>
-      </c>
-      <c r="B3" s="28">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
-        <v>144.43</v>
-      </c>
-      <c r="F3" s="28">
-        <v>74.819999999999993</v>
+      <c r="A3" s="20">
+        <v>150.63999999999999</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>150.63999999999999</v>
+      </c>
+      <c r="F3" s="20">
+        <v>44.26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
-        <v>0</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="A4" s="20">
+        <v>0</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
-        <v>0</v>
-      </c>
-      <c r="B5" s="28">
-        <v>0</v>
-      </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28">
-        <v>0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="A5" s="20">
+        <v>0</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1547,7 +1503,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1555,78 +1511,74 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="26">
-        <v>42067</v>
+      <c r="C2" s="21">
+        <v>42074</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="27">
+      <c r="G2" s="19">
         <v>10000</v>
       </c>
       <c r="H2" s="20"/>
-      <c r="I2" s="28">
+      <c r="I2" s="20">
         <v>0</v>
       </c>
       <c r="J2" s="20"/>
-      <c r="K2" s="28">
-        <v>0</v>
-      </c>
-      <c r="L2" s="28">
+      <c r="K2" s="20">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20">
         <v>0</v>
       </c>
       <c r="M2" s="20"/>
@@ -1636,531 +1588,543 @@
       <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="20">
         <v>7</v>
       </c>
-      <c r="C3" s="26">
-        <v>42074</v>
+      <c r="C3" s="21">
+        <v>42081</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="28">
+      <c r="F3" s="20">
         <v>822.81</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="25">
         <v>9177.19</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="20">
         <v>23.08</v>
       </c>
-      <c r="I3" s="28">
-        <v>0</v>
-      </c>
-      <c r="J3" s="28">
-        <v>0</v>
-      </c>
-      <c r="K3" s="28">
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
         <v>845.89</v>
       </c>
-      <c r="L3" s="28">
-        <v>0</v>
-      </c>
-      <c r="M3" s="28">
-        <v>0</v>
-      </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="28">
+      <c r="L3" s="20">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="20">
         <v>7</v>
       </c>
-      <c r="C4" s="26">
-        <v>42081</v>
+      <c r="C4" s="21">
+        <v>42088</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="28">
-        <v>830.76</v>
-      </c>
-      <c r="G4" s="29">
-        <v>8346.43</v>
-      </c>
-      <c r="H4" s="28">
-        <v>15.13</v>
-      </c>
-      <c r="I4" s="28">
-        <v>0</v>
-      </c>
-      <c r="J4" s="28">
-        <v>0</v>
-      </c>
-      <c r="K4" s="28">
+      <c r="F4" s="20">
+        <v>824.71</v>
+      </c>
+      <c r="G4" s="25">
+        <v>8352.48</v>
+      </c>
+      <c r="H4" s="20">
+        <v>21.18</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
         <v>845.89</v>
       </c>
-      <c r="L4" s="28">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28">
-        <v>0</v>
-      </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="28">
+      <c r="L4" s="20">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="20">
         <v>7</v>
       </c>
-      <c r="C5" s="26">
-        <v>42088</v>
+      <c r="C5" s="21">
+        <v>42095</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="28">
-        <v>826.63</v>
-      </c>
-      <c r="G5" s="29">
-        <v>7519.8</v>
-      </c>
-      <c r="H5" s="28">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="I5" s="28">
-        <v>0</v>
-      </c>
-      <c r="J5" s="28">
-        <v>0</v>
-      </c>
-      <c r="K5" s="28">
+      <c r="F5" s="20">
+        <v>826.62</v>
+      </c>
+      <c r="G5" s="25">
+        <v>7525.86</v>
+      </c>
+      <c r="H5" s="20">
+        <v>19.27</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
         <v>845.89</v>
       </c>
-      <c r="L5" s="28">
-        <v>0</v>
-      </c>
-      <c r="M5" s="28">
-        <v>0</v>
-      </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="28">
+      <c r="L5" s="20">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>0</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="20">
         <v>7</v>
       </c>
-      <c r="C6" s="26">
-        <v>42095</v>
+      <c r="C6" s="21">
+        <v>42102</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="28">
-        <v>828.54</v>
-      </c>
-      <c r="G6" s="29">
-        <v>6691.26</v>
-      </c>
-      <c r="H6" s="28">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="I6" s="28">
-        <v>0</v>
-      </c>
-      <c r="J6" s="28">
-        <v>0</v>
-      </c>
-      <c r="K6" s="28">
+      <c r="F6" s="20">
+        <v>828.52</v>
+      </c>
+      <c r="G6" s="25">
+        <v>6697.34</v>
+      </c>
+      <c r="H6" s="20">
+        <v>17.37</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
         <v>845.89</v>
       </c>
-      <c r="L6" s="28">
-        <v>0</v>
-      </c>
-      <c r="M6" s="28">
-        <v>0</v>
-      </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="28">
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="20">
         <v>7</v>
       </c>
-      <c r="C7" s="26">
-        <v>42102</v>
+      <c r="C7" s="21">
+        <v>42109</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="28">
-        <v>830.45</v>
-      </c>
-      <c r="G7" s="29">
-        <v>5860.81</v>
-      </c>
-      <c r="H7" s="28">
-        <v>15.44</v>
-      </c>
-      <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28">
-        <v>0</v>
-      </c>
-      <c r="K7" s="28">
+      <c r="F7" s="20">
+        <v>830.43</v>
+      </c>
+      <c r="G7" s="25">
+        <v>5866.91</v>
+      </c>
+      <c r="H7" s="20">
+        <v>15.46</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
         <v>845.89</v>
       </c>
-      <c r="L7" s="28">
-        <v>0</v>
-      </c>
-      <c r="M7" s="28">
-        <v>0</v>
-      </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="28">
+      <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="28">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="20">
         <v>7</v>
       </c>
-      <c r="C8" s="26">
-        <v>42109</v>
+      <c r="C8" s="21">
+        <v>42116</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="28">
-        <v>832.37</v>
-      </c>
-      <c r="G8" s="29">
-        <v>5028.4399999999996</v>
-      </c>
-      <c r="H8" s="28">
-        <v>13.52</v>
-      </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="28">
-        <v>0</v>
-      </c>
-      <c r="K8" s="28">
+      <c r="F8" s="20">
+        <v>832.35</v>
+      </c>
+      <c r="G8" s="25">
+        <v>5034.5600000000004</v>
+      </c>
+      <c r="H8" s="20">
+        <v>13.54</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
         <v>845.89</v>
       </c>
-      <c r="L8" s="28">
-        <v>0</v>
-      </c>
-      <c r="M8" s="28">
-        <v>0</v>
-      </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="28">
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="20">
         <v>7</v>
       </c>
-      <c r="C9" s="26">
-        <v>42116</v>
+      <c r="C9" s="21">
+        <v>42123</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="28">
-        <v>834.29</v>
-      </c>
-      <c r="G9" s="29">
-        <v>4194.1499999999996</v>
-      </c>
-      <c r="H9" s="28">
-        <v>11.6</v>
-      </c>
-      <c r="I9" s="28">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28">
-        <v>0</v>
-      </c>
-      <c r="K9" s="28">
+      <c r="F9" s="20">
+        <v>834.27</v>
+      </c>
+      <c r="G9" s="25">
+        <v>4200.29</v>
+      </c>
+      <c r="H9" s="20">
+        <v>11.62</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
         <v>845.89</v>
       </c>
-      <c r="L9" s="28">
-        <v>0</v>
-      </c>
-      <c r="M9" s="28">
-        <v>0</v>
-      </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="28">
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" s="26">
-        <v>42123</v>
+      <c r="C10" s="21">
+        <v>42130</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="28">
-        <v>836.21</v>
-      </c>
-      <c r="G10" s="29">
-        <v>3357.94</v>
-      </c>
-      <c r="H10" s="28">
-        <v>9.68</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="28">
-        <v>0</v>
-      </c>
-      <c r="K10" s="28">
+      <c r="F10" s="20">
+        <v>836.2</v>
+      </c>
+      <c r="G10" s="25">
+        <v>3364.09</v>
+      </c>
+      <c r="H10" s="20">
+        <v>9.69</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
         <v>845.89</v>
       </c>
-      <c r="L10" s="28">
-        <v>0</v>
-      </c>
-      <c r="M10" s="28">
-        <v>0</v>
-      </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="28">
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="20">
         <v>7</v>
       </c>
-      <c r="C11" s="26">
-        <v>42130</v>
+      <c r="C11" s="21">
+        <v>42137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="28">
-        <v>838.14</v>
-      </c>
-      <c r="G11" s="29">
-        <v>2519.8000000000002</v>
-      </c>
-      <c r="H11" s="28">
-        <v>7.75</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="28">
-        <v>0</v>
-      </c>
-      <c r="K11" s="28">
+      <c r="F11" s="20">
+        <v>838.13</v>
+      </c>
+      <c r="G11" s="25">
+        <v>2525.96</v>
+      </c>
+      <c r="H11" s="20">
+        <v>7.76</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
         <v>845.89</v>
       </c>
-      <c r="L11" s="28">
-        <v>0</v>
-      </c>
-      <c r="M11" s="28">
-        <v>0</v>
-      </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="28">
+      <c r="L11" s="20">
+        <v>0</v>
+      </c>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20">
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
+        <v>0</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="20">
         <v>7</v>
       </c>
-      <c r="C12" s="26">
-        <v>42137</v>
+      <c r="C12" s="21">
+        <v>42144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="28">
-        <v>840.08</v>
-      </c>
-      <c r="G12" s="29">
-        <v>1679.72</v>
-      </c>
-      <c r="H12" s="28">
-        <v>5.81</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0</v>
-      </c>
-      <c r="J12" s="28">
-        <v>0</v>
-      </c>
-      <c r="K12" s="28">
+      <c r="F12" s="20">
+        <v>840.06</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1685.9</v>
+      </c>
+      <c r="H12" s="20">
+        <v>5.83</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
         <v>845.89</v>
       </c>
-      <c r="L12" s="28">
-        <v>0</v>
-      </c>
-      <c r="M12" s="28">
-        <v>0</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="28">
+      <c r="L12" s="20">
+        <v>0</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="20">
         <v>7</v>
       </c>
-      <c r="C13" s="26">
-        <v>42144</v>
+      <c r="C13" s="21">
+        <v>42151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="28">
-        <v>842.01</v>
-      </c>
-      <c r="G13" s="28">
-        <v>837.71</v>
-      </c>
-      <c r="H13" s="28">
-        <v>3.88</v>
-      </c>
-      <c r="I13" s="28">
-        <v>0</v>
-      </c>
-      <c r="J13" s="28">
-        <v>0</v>
-      </c>
-      <c r="K13" s="28">
+      <c r="F13" s="20">
+        <v>842</v>
+      </c>
+      <c r="G13" s="20">
+        <v>843.9</v>
+      </c>
+      <c r="H13" s="20">
+        <v>3.89</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
         <v>845.89</v>
       </c>
-      <c r="L13" s="28">
-        <v>0</v>
-      </c>
-      <c r="M13" s="28">
-        <v>0</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="28">
+      <c r="L13" s="20">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20">
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20">
         <v>845.89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="20">
         <v>7</v>
       </c>
-      <c r="C14" s="26">
-        <v>42151</v>
+      <c r="C14" s="21">
+        <v>42158</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="28">
-        <v>837.71</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0</v>
-      </c>
-      <c r="H14" s="28">
-        <v>1.93</v>
-      </c>
-      <c r="I14" s="28">
-        <v>0</v>
-      </c>
-      <c r="J14" s="28">
-        <v>0</v>
-      </c>
-      <c r="K14" s="28">
-        <v>839.64</v>
-      </c>
-      <c r="L14" s="28">
-        <v>0</v>
-      </c>
-      <c r="M14" s="28">
-        <v>0</v>
-      </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>839.64</v>
+      <c r="F14" s="20">
+        <v>843.9</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1.95</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <v>845.85</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
+        <v>845.85</v>
       </c>
     </row>
   </sheetData>
@@ -2180,34 +2144,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -2215,13 +2179,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="21">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="23">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="E2" s="19">
         <v>10000</v>
@@ -2263,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>22</v>
@@ -2271,7 +2235,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -2279,15 +2243,15 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5">
         <v>42095</v>
@@ -2295,7 +2259,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -2303,10 +2267,10 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
